--- a/976-X.121A/T-SP-X.121A-2011.xlsx
+++ b/976-X.121A/T-SP-X.121A-2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/976-X.121A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3DED8-1C6A-904C-9B2B-91A8021C64D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F7BD1-2323-8641-83DD-49A9DAD00D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1040" windowWidth="25600" windowHeight="20880" xr2:uid="{EFAD2615-3D04-304C-9A5E-564F78EF07A6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{EFAD2615-3D04-304C-9A5E-564F78EF07A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="628">
   <si>
     <t>Greece</t>
   </si>
@@ -1918,13 +1918,16 @@
   </si>
   <si>
     <t xml:space="preserve">Réservé pour l’Autorité palestinienne </t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1934,24 +1937,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2003,26 +1988,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2343,7 +2319,7 @@
   <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2426,24 +2402,24 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="B12" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
         <v>223</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>226</v>
@@ -2460,13 +2436,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
         <v>202</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
@@ -2478,13 +2453,12 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
         <v>204</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -2496,13 +2470,12 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
         <v>205</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16" t="s">
@@ -2514,13 +2487,12 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
         <v>206</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
@@ -2532,13 +2504,12 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
         <v>208</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
@@ -2550,13 +2521,12 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
         <v>209</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
@@ -2568,13 +2538,12 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
         <v>210</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
@@ -2586,13 +2555,12 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
         <v>211</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
@@ -2604,13 +2572,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
         <v>212</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" t="s">
@@ -2622,13 +2589,12 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
         <v>213</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
@@ -2640,13 +2606,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
         <v>214</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
@@ -2658,13 +2623,12 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
         <v>215</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
@@ -2676,13 +2640,12 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1">
         <v>216</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
@@ -2694,13 +2657,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1">
         <v>218</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
@@ -2712,13 +2674,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1">
         <v>219</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
@@ -2730,13 +2691,12 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1">
         <v>220</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
@@ -2748,13 +2708,12 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
         <v>222</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
@@ -2766,13 +2725,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
         <v>223</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
@@ -2784,13 +2742,12 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
         <v>224</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
@@ -2802,13 +2759,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
         <v>225</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
@@ -2820,13 +2776,12 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1">
         <v>226</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
@@ -2838,13 +2793,12 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1">
         <v>228</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
@@ -2856,13 +2810,12 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1">
         <v>229</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
@@ -2874,13 +2827,12 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1">
         <v>230</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
@@ -2892,13 +2844,12 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1">
         <v>231</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
@@ -2910,13 +2861,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1">
         <v>232</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
@@ -2928,13 +2878,12 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1">
         <v>233</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="s">
@@ -2946,13 +2895,12 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1">
         <v>234</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
@@ -2964,13 +2912,12 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
         <v>235</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42" t="s">
@@ -2982,13 +2929,12 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1">
         <v>236</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
@@ -3000,13 +2946,12 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1">
         <v>237</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
@@ -3018,13 +2963,12 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1">
         <v>238</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
@@ -3036,13 +2980,12 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1">
         <v>239</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46" t="s">
@@ -3054,13 +2997,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1">
         <v>240</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
         <v>20</v>
       </c>
       <c r="E47" t="s">
@@ -3072,13 +3014,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1">
         <v>242</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="E48" t="s">
@@ -3090,13 +3031,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1">
         <v>243</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
         <v>21</v>
       </c>
       <c r="E49" t="s">
@@ -3108,13 +3048,12 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1">
         <v>244</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
         <v>22</v>
       </c>
       <c r="E50" t="s">
@@ -3126,13 +3065,12 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1">
         <v>246</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" t="s">
@@ -3144,13 +3082,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1">
         <v>247</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" t="s">
@@ -3162,13 +3099,12 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1">
         <v>248</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53" t="s">
@@ -3180,13 +3116,12 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1">
         <v>250</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
         <v>26</v>
       </c>
       <c r="E54" t="s">
@@ -3198,13 +3133,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1">
         <v>251</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
         <v>26</v>
       </c>
       <c r="E55" t="s">
@@ -3216,13 +3150,12 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1">
         <v>255</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56" t="s">
@@ -3234,13 +3167,12 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1">
         <v>257</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="s">
@@ -3252,13 +3184,12 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1">
         <v>259</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
         <v>29</v>
       </c>
       <c r="E58" t="s">
@@ -3270,13 +3201,12 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1">
         <v>260</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
         <v>30</v>
       </c>
       <c r="E59" t="s">
@@ -3288,13 +3218,12 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1">
         <v>261</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
         <v>30</v>
       </c>
       <c r="E60" t="s">
@@ -3306,13 +3235,12 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" s="1">
         <v>262</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
         <v>31</v>
       </c>
       <c r="E61" t="s">
@@ -3324,13 +3252,12 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1">
         <v>263</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
         <v>31</v>
       </c>
       <c r="E62" t="s">
@@ -3342,13 +3269,12 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" s="1">
         <v>264</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
         <v>31</v>
       </c>
       <c r="E63" t="s">
@@ -3360,13 +3286,12 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1">
         <v>265</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
         <v>31</v>
       </c>
       <c r="E64" t="s">
@@ -3378,13 +3303,12 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1">
         <v>266</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
         <v>32</v>
       </c>
       <c r="E65" t="s">
@@ -3396,10 +3320,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2</v>
+        <v>268</v>
       </c>
       <c r="B66">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -3413,13 +3337,12 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1">
         <v>269</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
         <v>33</v>
       </c>
       <c r="E67" t="s">
@@ -3431,13 +3354,12 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1">
         <v>270</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
@@ -3449,13 +3371,12 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1">
         <v>272</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
         <v>35</v>
       </c>
       <c r="E69" t="s">
@@ -3467,13 +3388,12 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1">
         <v>274</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
         <v>36</v>
       </c>
       <c r="E70" t="s">
@@ -3485,13 +3405,12 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1">
         <v>276</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
         <v>37</v>
       </c>
       <c r="E71" t="s">
@@ -3503,13 +3422,12 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1">
         <v>278</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
         <v>38</v>
       </c>
       <c r="E72" t="s">
@@ -3521,13 +3439,12 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1">
         <v>280</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
         <v>39</v>
       </c>
       <c r="E73" t="s">
@@ -3539,13 +3456,12 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" s="2">
         <v>282</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
         <v>40</v>
       </c>
       <c r="E74" t="s">
@@ -3557,13 +3473,12 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1">
         <v>283</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
         <v>41</v>
       </c>
       <c r="E75" t="s">
@@ -3575,13 +3490,12 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1">
         <v>284</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1" t="s">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
         <v>42</v>
       </c>
       <c r="E76" t="s">
@@ -3593,13 +3507,12 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" s="1">
         <v>286</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
         <v>43</v>
       </c>
       <c r="E77" t="s">
@@ -3611,13 +3524,12 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78" s="1">
         <v>288</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1" t="s">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
         <v>44</v>
       </c>
       <c r="E78" t="s">
@@ -3629,13 +3541,12 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1">
         <v>290</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
         <v>45</v>
       </c>
       <c r="E79" t="s">
@@ -3647,13 +3558,12 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1">
         <v>292</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
         <v>46</v>
       </c>
       <c r="E80" t="s">
@@ -3665,13 +3575,12 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1">
         <v>293</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
         <v>47</v>
       </c>
       <c r="E81" t="s">
@@ -3683,13 +3592,12 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" s="2">
         <v>294</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
         <v>48</v>
       </c>
       <c r="E82" t="s">
@@ -3701,13 +3609,12 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" s="2">
         <v>295</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
         <v>49</v>
       </c>
       <c r="E83" t="s">
@@ -3719,13 +3626,12 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1">
         <v>297</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1" t="s">
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
         <v>50</v>
       </c>
       <c r="E84" t="s">
@@ -3737,13 +3643,12 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
+        <v>302</v>
+      </c>
+      <c r="B85">
         <v>3</v>
       </c>
-      <c r="B85" s="2">
-        <v>302</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>51</v>
       </c>
       <c r="E85" t="s">
@@ -3755,13 +3660,12 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
+        <v>303</v>
+      </c>
+      <c r="B86">
         <v>3</v>
       </c>
-      <c r="B86" s="2">
-        <v>303</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>51</v>
       </c>
       <c r="E86" t="s">
@@ -3773,13 +3677,12 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
+        <v>308</v>
+      </c>
+      <c r="B87">
         <v>3</v>
       </c>
-      <c r="B87" s="2">
-        <v>308</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>225</v>
       </c>
       <c r="E87" t="s">
@@ -3791,13 +3694,12 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
+        <v>310</v>
+      </c>
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="B88" s="2">
-        <v>310</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>52</v>
       </c>
       <c r="E88" t="s">
@@ -3809,13 +3711,12 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
+        <v>311</v>
+      </c>
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="B89" s="2">
-        <v>311</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>52</v>
       </c>
       <c r="E89" t="s">
@@ -3827,13 +3728,12 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
+        <v>312</v>
+      </c>
+      <c r="B90">
         <v>3</v>
       </c>
-      <c r="B90" s="2">
-        <v>312</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>52</v>
       </c>
       <c r="E90" t="s">
@@ -3845,13 +3745,12 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>313</v>
+      </c>
+      <c r="B91">
         <v>3</v>
       </c>
-      <c r="B91" s="2">
-        <v>313</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>52</v>
       </c>
       <c r="E91" t="s">
@@ -3863,13 +3762,12 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
+        <v>314</v>
+      </c>
+      <c r="B92">
         <v>3</v>
       </c>
-      <c r="B92" s="2">
-        <v>314</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>52</v>
       </c>
       <c r="E92" t="s">
@@ -3881,13 +3779,12 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
+        <v>315</v>
+      </c>
+      <c r="B93">
         <v>3</v>
       </c>
-      <c r="B93" s="2">
-        <v>315</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s">
         <v>52</v>
       </c>
       <c r="E93" t="s">
@@ -3899,13 +3796,12 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
+        <v>316</v>
+      </c>
+      <c r="B94">
         <v>3</v>
       </c>
-      <c r="B94" s="2">
-        <v>316</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>52</v>
       </c>
       <c r="E94" t="s">
@@ -3917,13 +3813,12 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
+        <v>330</v>
+      </c>
+      <c r="B95">
         <v>3</v>
       </c>
-      <c r="B95" s="2">
-        <v>330</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s">
         <v>53</v>
       </c>
       <c r="E95" t="s">
@@ -3935,13 +3830,12 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>332</v>
+      </c>
+      <c r="B96">
         <v>3</v>
       </c>
-      <c r="B96" s="2">
-        <v>332</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>54</v>
       </c>
       <c r="E96" t="s">
@@ -3953,13 +3847,12 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
+        <v>334</v>
+      </c>
+      <c r="B97">
         <v>3</v>
       </c>
-      <c r="B97" s="2">
-        <v>334</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s">
         <v>55</v>
       </c>
       <c r="E97" t="s">
@@ -3971,13 +3864,12 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
+        <v>335</v>
+      </c>
+      <c r="B98">
         <v>3</v>
       </c>
-      <c r="B98" s="2">
-        <v>335</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>55</v>
       </c>
       <c r="E98" t="s">
@@ -3989,13 +3881,12 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
+        <v>338</v>
+      </c>
+      <c r="B99">
         <v>3</v>
       </c>
-      <c r="B99" s="2">
-        <v>338</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>56</v>
       </c>
       <c r="E99" t="s">
@@ -4007,13 +3898,12 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>340</v>
+      </c>
+      <c r="B100">
         <v>3</v>
       </c>
-      <c r="B100" s="2">
-        <v>340</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>57</v>
       </c>
       <c r="E100" t="s">
@@ -4025,13 +3915,12 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>340</v>
+      </c>
+      <c r="B101">
         <v>3</v>
       </c>
-      <c r="B101" s="2">
-        <v>340</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>58</v>
       </c>
       <c r="E101" t="s">
@@ -4043,13 +3932,12 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
+        <v>342</v>
+      </c>
+      <c r="B102">
         <v>3</v>
       </c>
-      <c r="B102" s="2">
-        <v>342</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>59</v>
       </c>
       <c r="E102" t="s">
@@ -4061,13 +3949,12 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
+        <v>344</v>
+      </c>
+      <c r="B103">
         <v>3</v>
       </c>
-      <c r="B103" s="2">
-        <v>344</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>60</v>
       </c>
       <c r="E103" t="s">
@@ -4079,13 +3966,12 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
+        <v>346</v>
+      </c>
+      <c r="B104">
         <v>3</v>
       </c>
-      <c r="B104" s="2">
-        <v>346</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>61</v>
       </c>
       <c r="E104" t="s">
@@ -4097,13 +3983,12 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
+        <v>348</v>
+      </c>
+      <c r="B105">
         <v>3</v>
       </c>
-      <c r="B105" s="2">
-        <v>348</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
+      <c r="D105" t="s">
         <v>62</v>
       </c>
       <c r="E105" t="s">
@@ -4115,13 +4000,12 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
+        <v>350</v>
+      </c>
+      <c r="B106">
         <v>3</v>
       </c>
-      <c r="B106" s="2">
-        <v>350</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>63</v>
       </c>
       <c r="E106" t="s">
@@ -4133,13 +4017,12 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
+        <v>352</v>
+      </c>
+      <c r="B107">
         <v>3</v>
       </c>
-      <c r="B107" s="2">
-        <v>352</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
+      <c r="D107" t="s">
         <v>64</v>
       </c>
       <c r="E107" t="s">
@@ -4151,13 +4034,12 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
+        <v>354</v>
+      </c>
+      <c r="B108">
         <v>3</v>
       </c>
-      <c r="B108" s="2">
-        <v>354</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s">
         <v>65</v>
       </c>
       <c r="E108" t="s">
@@ -4169,13 +4051,12 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
+        <v>356</v>
+      </c>
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="B109" s="2">
-        <v>356</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s">
         <v>66</v>
       </c>
       <c r="E109" t="s">
@@ -4187,13 +4068,12 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
+        <v>358</v>
+      </c>
+      <c r="B110">
         <v>3</v>
       </c>
-      <c r="B110" s="2">
-        <v>358</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s">
         <v>67</v>
       </c>
       <c r="E110" t="s">
@@ -4205,13 +4085,12 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
+        <v>360</v>
+      </c>
+      <c r="B111">
         <v>3</v>
       </c>
-      <c r="B111" s="2">
-        <v>360</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
+      <c r="D111" t="s">
         <v>68</v>
       </c>
       <c r="E111" t="s">
@@ -4223,13 +4102,12 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
+        <v>362</v>
+      </c>
+      <c r="B112">
         <v>3</v>
       </c>
-      <c r="B112" s="2">
-        <v>362</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s">
         <v>69</v>
       </c>
       <c r="E112" t="s">
@@ -4241,13 +4119,12 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
+        <v>363</v>
+      </c>
+      <c r="B113">
         <v>3</v>
       </c>
-      <c r="B113" s="2">
-        <v>363</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s">
         <v>70</v>
       </c>
       <c r="E113" t="s">
@@ -4259,13 +4136,12 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
+        <v>364</v>
+      </c>
+      <c r="B114">
         <v>3</v>
       </c>
-      <c r="B114" s="2">
-        <v>364</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>71</v>
       </c>
       <c r="E114" t="s">
@@ -4277,13 +4153,12 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
+        <v>365</v>
+      </c>
+      <c r="B115">
         <v>3</v>
       </c>
-      <c r="B115" s="2">
-        <v>365</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s">
         <v>72</v>
       </c>
       <c r="E115" t="s">
@@ -4295,13 +4170,12 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
+        <v>366</v>
+      </c>
+      <c r="B116">
         <v>3</v>
       </c>
-      <c r="B116" s="2">
-        <v>366</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s">
         <v>73</v>
       </c>
       <c r="E116" t="s">
@@ -4313,13 +4187,12 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
+        <v>368</v>
+      </c>
+      <c r="B117">
         <v>3</v>
       </c>
-      <c r="B117" s="2">
-        <v>368</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
+      <c r="D117" t="s">
         <v>74</v>
       </c>
       <c r="E117" t="s">
@@ -4331,13 +4204,12 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
+        <v>370</v>
+      </c>
+      <c r="B118">
         <v>3</v>
       </c>
-      <c r="B118" s="2">
-        <v>370</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>75</v>
       </c>
       <c r="E118" t="s">
@@ -4349,13 +4221,12 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
+        <v>372</v>
+      </c>
+      <c r="B119">
         <v>3</v>
       </c>
-      <c r="B119" s="2">
-        <v>372</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>76</v>
       </c>
       <c r="E119" t="s">
@@ -4367,13 +4238,12 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
+        <v>374</v>
+      </c>
+      <c r="B120">
         <v>3</v>
       </c>
-      <c r="B120" s="2">
-        <v>374</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>77</v>
       </c>
       <c r="E120" t="s">
@@ -4385,13 +4255,12 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
+        <v>376</v>
+      </c>
+      <c r="B121">
         <v>3</v>
       </c>
-      <c r="B121" s="2">
-        <v>376</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>78</v>
       </c>
       <c r="E121" t="s">
@@ -4403,13 +4272,12 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
+        <v>400</v>
+      </c>
+      <c r="B122">
         <v>4</v>
       </c>
-      <c r="B122" s="1">
-        <v>400</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
+      <c r="D122" t="s">
         <v>79</v>
       </c>
       <c r="E122" t="s">
@@ -4421,13 +4289,12 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>401</v>
+      </c>
+      <c r="B123">
         <v>4</v>
       </c>
-      <c r="B123" s="2">
-        <v>401</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s">
         <v>80</v>
       </c>
       <c r="E123" t="s">
@@ -4439,13 +4306,12 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
+        <v>404</v>
+      </c>
+      <c r="B124">
         <v>4</v>
       </c>
-      <c r="B124" s="1">
-        <v>404</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1" t="s">
+      <c r="D124" t="s">
         <v>81</v>
       </c>
       <c r="E124" t="s">
@@ -4457,13 +4323,12 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
+        <v>410</v>
+      </c>
+      <c r="B125">
         <v>4</v>
       </c>
-      <c r="B125" s="1">
-        <v>410</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
+      <c r="D125" t="s">
         <v>82</v>
       </c>
       <c r="E125" t="s">
@@ -4475,13 +4340,12 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
+        <v>411</v>
+      </c>
+      <c r="B126">
         <v>4</v>
       </c>
-      <c r="B126" s="1">
-        <v>411</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>82</v>
       </c>
       <c r="E126" t="s">
@@ -4493,13 +4357,12 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
+        <v>412</v>
+      </c>
+      <c r="B127">
         <v>4</v>
       </c>
-      <c r="B127" s="1">
-        <v>412</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>83</v>
       </c>
       <c r="E127" t="s">
@@ -4511,13 +4374,12 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
+        <v>413</v>
+      </c>
+      <c r="B128">
         <v>4</v>
       </c>
-      <c r="B128" s="1">
-        <v>413</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1" t="s">
+      <c r="D128" t="s">
         <v>84</v>
       </c>
       <c r="E128" t="s">
@@ -4529,13 +4391,12 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
+        <v>414</v>
+      </c>
+      <c r="B129">
         <v>4</v>
       </c>
-      <c r="B129" s="1">
-        <v>414</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>85</v>
       </c>
       <c r="E129" t="s">
@@ -4547,13 +4408,12 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
+        <v>415</v>
+      </c>
+      <c r="B130">
         <v>4</v>
       </c>
-      <c r="B130" s="1">
-        <v>415</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>86</v>
       </c>
       <c r="E130" t="s">
@@ -4565,13 +4425,12 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
+        <v>416</v>
+      </c>
+      <c r="B131">
         <v>4</v>
       </c>
-      <c r="B131" s="1">
-        <v>416</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>87</v>
       </c>
       <c r="E131" t="s">
@@ -4583,13 +4442,12 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
+        <v>417</v>
+      </c>
+      <c r="B132">
         <v>4</v>
       </c>
-      <c r="B132" s="1">
-        <v>417</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1" t="s">
+      <c r="D132" t="s">
         <v>88</v>
       </c>
       <c r="E132" t="s">
@@ -4601,13 +4459,12 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
+        <v>418</v>
+      </c>
+      <c r="B133">
         <v>4</v>
       </c>
-      <c r="B133" s="1">
-        <v>418</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>89</v>
       </c>
       <c r="E133" t="s">
@@ -4619,13 +4476,12 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
+        <v>419</v>
+      </c>
+      <c r="B134">
         <v>4</v>
       </c>
-      <c r="B134" s="1">
-        <v>419</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1" t="s">
+      <c r="D134" t="s">
         <v>90</v>
       </c>
       <c r="E134" t="s">
@@ -4637,13 +4493,12 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
+        <v>420</v>
+      </c>
+      <c r="B135">
         <v>4</v>
       </c>
-      <c r="B135" s="1">
-        <v>420</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1" t="s">
+      <c r="D135" t="s">
         <v>91</v>
       </c>
       <c r="E135" t="s">
@@ -4655,13 +4510,12 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
+        <v>421</v>
+      </c>
+      <c r="B136">
         <v>4</v>
       </c>
-      <c r="B136" s="1">
-        <v>421</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1" t="s">
+      <c r="D136" t="s">
         <v>92</v>
       </c>
       <c r="E136" t="s">
@@ -4673,13 +4527,12 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
+        <v>422</v>
+      </c>
+      <c r="B137">
         <v>4</v>
       </c>
-      <c r="B137" s="1">
-        <v>422</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
+      <c r="D137" t="s">
         <v>93</v>
       </c>
       <c r="E137" t="s">
@@ -4691,15 +4544,15 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
+        <v>423</v>
+      </c>
+      <c r="B138">
         <v>4</v>
       </c>
-      <c r="B138" s="1">
-        <v>423</v>
-      </c>
-      <c r="C138" s="1" t="b">
+      <c r="C138" t="b">
         <v>1</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" t="s">
         <v>227</v>
       </c>
       <c r="E138" t="s">
@@ -4711,13 +4564,12 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
+        <v>424</v>
+      </c>
+      <c r="B139">
         <v>4</v>
       </c>
-      <c r="B139" s="1">
-        <v>424</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
+      <c r="D139" t="s">
         <v>94</v>
       </c>
       <c r="E139" t="s">
@@ -4729,13 +4581,12 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
+        <v>425</v>
+      </c>
+      <c r="B140">
         <v>4</v>
       </c>
-      <c r="B140" s="1">
-        <v>425</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1" t="s">
+      <c r="D140" t="s">
         <v>95</v>
       </c>
       <c r="E140" t="s">
@@ -4747,13 +4598,12 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
+        <v>426</v>
+      </c>
+      <c r="B141">
         <v>4</v>
       </c>
-      <c r="B141" s="1">
-        <v>426</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1" t="s">
+      <c r="D141" t="s">
         <v>96</v>
       </c>
       <c r="E141" t="s">
@@ -4765,13 +4615,12 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
+        <v>427</v>
+      </c>
+      <c r="B142">
         <v>4</v>
       </c>
-      <c r="B142" s="1">
-        <v>427</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
+      <c r="D142" t="s">
         <v>97</v>
       </c>
       <c r="E142" t="s">
@@ -4783,13 +4632,12 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
+        <v>428</v>
+      </c>
+      <c r="B143">
         <v>4</v>
       </c>
-      <c r="B143" s="1">
-        <v>428</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
+      <c r="D143" t="s">
         <v>98</v>
       </c>
       <c r="E143" t="s">
@@ -4801,13 +4649,12 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
+        <v>429</v>
+      </c>
+      <c r="B144">
         <v>4</v>
       </c>
-      <c r="B144" s="1">
-        <v>429</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1" t="s">
+      <c r="D144" t="s">
         <v>99</v>
       </c>
       <c r="E144" t="s">
@@ -4819,13 +4666,12 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
+        <v>430</v>
+      </c>
+      <c r="B145">
         <v>4</v>
       </c>
-      <c r="B145" s="1">
-        <v>430</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1" t="s">
+      <c r="D145" t="s">
         <v>100</v>
       </c>
       <c r="E145" t="s">
@@ -4837,13 +4683,12 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
+        <v>431</v>
+      </c>
+      <c r="B146">
         <v>4</v>
       </c>
-      <c r="B146" s="1">
-        <v>431</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1" t="s">
+      <c r="D146" t="s">
         <v>101</v>
       </c>
       <c r="E146" t="s">
@@ -4855,13 +4700,12 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
+        <v>432</v>
+      </c>
+      <c r="B147">
         <v>4</v>
       </c>
-      <c r="B147" s="1">
-        <v>432</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1" t="s">
+      <c r="D147" t="s">
         <v>102</v>
       </c>
       <c r="E147" t="s">
@@ -4873,13 +4717,12 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
+        <v>434</v>
+      </c>
+      <c r="B148">
         <v>4</v>
       </c>
-      <c r="B148" s="1">
-        <v>434</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>103</v>
       </c>
       <c r="E148" t="s">
@@ -4891,13 +4734,12 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
+        <v>436</v>
+      </c>
+      <c r="B149">
         <v>4</v>
       </c>
-      <c r="B149" s="2">
-        <v>436</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>104</v>
       </c>
       <c r="E149" t="s">
@@ -4909,13 +4751,12 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
+        <v>437</v>
+      </c>
+      <c r="B150">
         <v>4</v>
       </c>
-      <c r="B150" s="2">
-        <v>437</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s">
         <v>105</v>
       </c>
       <c r="E150" t="s">
@@ -4927,13 +4768,12 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
+        <v>438</v>
+      </c>
+      <c r="B151">
         <v>4</v>
       </c>
-      <c r="B151" s="2">
-        <v>438</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2" t="s">
+      <c r="D151" t="s">
         <v>106</v>
       </c>
       <c r="E151" t="s">
@@ -4945,13 +4785,12 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
+        <v>440</v>
+      </c>
+      <c r="B152">
         <v>4</v>
       </c>
-      <c r="B152" s="1">
-        <v>440</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>107</v>
       </c>
       <c r="E152" t="s">
@@ -4963,13 +4802,12 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
+        <v>441</v>
+      </c>
+      <c r="B153">
         <v>4</v>
       </c>
-      <c r="B153" s="1">
-        <v>441</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>107</v>
       </c>
       <c r="E153" t="s">
@@ -4981,13 +4819,12 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
+        <v>442</v>
+      </c>
+      <c r="B154">
         <v>4</v>
       </c>
-      <c r="B154" s="1">
-        <v>442</v>
-      </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1" t="s">
+      <c r="D154" t="s">
         <v>107</v>
       </c>
       <c r="E154" t="s">
@@ -4999,13 +4836,12 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
+        <v>443</v>
+      </c>
+      <c r="B155">
         <v>4</v>
       </c>
-      <c r="B155" s="1">
-        <v>443</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1" t="s">
+      <c r="D155" t="s">
         <v>107</v>
       </c>
       <c r="E155" t="s">
@@ -5017,13 +4853,12 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
+        <v>450</v>
+      </c>
+      <c r="B156">
         <v>4</v>
       </c>
-      <c r="B156" s="1">
-        <v>450</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1" t="s">
+      <c r="D156" t="s">
         <v>108</v>
       </c>
       <c r="E156" t="s">
@@ -5035,13 +4870,12 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
+        <v>452</v>
+      </c>
+      <c r="B157">
         <v>4</v>
       </c>
-      <c r="B157" s="1">
-        <v>452</v>
-      </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1" t="s">
+      <c r="D157" t="s">
         <v>109</v>
       </c>
       <c r="E157" t="s">
@@ -5053,13 +4887,12 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
+        <v>453</v>
+      </c>
+      <c r="B158">
         <v>4</v>
       </c>
-      <c r="B158" s="1">
-        <v>453</v>
-      </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1" t="s">
+      <c r="D158" t="s">
         <v>110</v>
       </c>
       <c r="E158" t="s">
@@ -5071,13 +4904,12 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
+        <v>454</v>
+      </c>
+      <c r="B159">
         <v>4</v>
       </c>
-      <c r="B159" s="1">
-        <v>454</v>
-      </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1" t="s">
+      <c r="D159" t="s">
         <v>110</v>
       </c>
       <c r="E159" t="s">
@@ -5089,13 +4921,12 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
+        <v>455</v>
+      </c>
+      <c r="B160">
         <v>4</v>
       </c>
-      <c r="B160" s="1">
-        <v>455</v>
-      </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1" t="s">
+      <c r="D160" t="s">
         <v>111</v>
       </c>
       <c r="E160" t="s">
@@ -5107,13 +4938,12 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
+        <v>456</v>
+      </c>
+      <c r="B161">
         <v>4</v>
       </c>
-      <c r="B161" s="1">
-        <v>456</v>
-      </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1" t="s">
+      <c r="D161" t="s">
         <v>112</v>
       </c>
       <c r="E161" t="s">
@@ -5125,13 +4955,12 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
+        <v>457</v>
+      </c>
+      <c r="B162">
         <v>4</v>
       </c>
-      <c r="B162" s="1">
-        <v>457</v>
-      </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1" t="s">
+      <c r="D162" t="s">
         <v>113</v>
       </c>
       <c r="E162" t="s">
@@ -5143,13 +4972,12 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
+        <v>460</v>
+      </c>
+      <c r="B163">
         <v>4</v>
       </c>
-      <c r="B163" s="1">
-        <v>460</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1" t="s">
+      <c r="D163" t="s">
         <v>114</v>
       </c>
       <c r="E163" t="s">
@@ -5161,13 +4989,12 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
+        <v>466</v>
+      </c>
+      <c r="B164">
         <v>4</v>
       </c>
-      <c r="B164" s="1">
-        <v>466</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1" t="s">
+      <c r="D164" t="s">
         <v>115</v>
       </c>
       <c r="E164" t="s">
@@ -5179,13 +5006,12 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
+        <v>467</v>
+      </c>
+      <c r="B165">
         <v>4</v>
       </c>
-      <c r="B165" s="1">
-        <v>467</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1" t="s">
+      <c r="D165" t="s">
         <v>116</v>
       </c>
       <c r="E165" t="s">
@@ -5197,13 +5023,12 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
+        <v>470</v>
+      </c>
+      <c r="B166">
         <v>4</v>
       </c>
-      <c r="B166" s="1">
-        <v>470</v>
-      </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1" t="s">
+      <c r="D166" t="s">
         <v>117</v>
       </c>
       <c r="E166" t="s">
@@ -5215,13 +5040,12 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
+        <v>472</v>
+      </c>
+      <c r="B167">
         <v>4</v>
       </c>
-      <c r="B167" s="1">
-        <v>472</v>
-      </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1" t="s">
+      <c r="D167" t="s">
         <v>118</v>
       </c>
       <c r="E167" t="s">
@@ -5233,13 +5057,12 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
+        <v>480</v>
+      </c>
+      <c r="B168">
         <v>4</v>
       </c>
-      <c r="B168" s="1">
-        <v>480</v>
-      </c>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1" t="s">
+      <c r="D168" t="s">
         <v>108</v>
       </c>
       <c r="E168" t="s">
@@ -5251,13 +5074,12 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
+        <v>481</v>
+      </c>
+      <c r="B169">
         <v>4</v>
       </c>
-      <c r="B169" s="1">
-        <v>481</v>
-      </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1" t="s">
+      <c r="D169" t="s">
         <v>108</v>
       </c>
       <c r="E169" t="s">
@@ -5269,13 +5091,12 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
+        <v>502</v>
+      </c>
+      <c r="B170">
         <v>5</v>
       </c>
-      <c r="B170" s="1">
-        <v>502</v>
-      </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1" t="s">
+      <c r="D170" t="s">
         <v>119</v>
       </c>
       <c r="E170" t="s">
@@ -5287,13 +5108,12 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
+        <v>505</v>
+      </c>
+      <c r="B171">
         <v>5</v>
       </c>
-      <c r="B171" s="1">
-        <v>505</v>
-      </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1" t="s">
+      <c r="D171" t="s">
         <v>120</v>
       </c>
       <c r="E171" t="s">
@@ -5305,13 +5125,12 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
+        <v>510</v>
+      </c>
+      <c r="B172">
         <v>5</v>
       </c>
-      <c r="B172" s="1">
-        <v>510</v>
-      </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1" t="s">
+      <c r="D172" t="s">
         <v>121</v>
       </c>
       <c r="E172" t="s">
@@ -5323,13 +5142,12 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
+        <v>515</v>
+      </c>
+      <c r="B173">
         <v>5</v>
       </c>
-      <c r="B173" s="1">
-        <v>515</v>
-      </c>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1" t="s">
+      <c r="D173" t="s">
         <v>122</v>
       </c>
       <c r="E173" t="s">
@@ -5341,13 +5159,12 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
+        <v>520</v>
+      </c>
+      <c r="B174">
         <v>5</v>
       </c>
-      <c r="B174" s="1">
-        <v>520</v>
-      </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1" t="s">
+      <c r="D174" t="s">
         <v>123</v>
       </c>
       <c r="E174" t="s">
@@ -5359,13 +5176,12 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
+        <v>525</v>
+      </c>
+      <c r="B175">
         <v>5</v>
       </c>
-      <c r="B175" s="1">
-        <v>525</v>
-      </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1" t="s">
+      <c r="D175" t="s">
         <v>124</v>
       </c>
       <c r="E175" t="s">
@@ -5377,13 +5193,12 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
+        <v>526</v>
+      </c>
+      <c r="B176">
         <v>5</v>
       </c>
-      <c r="B176" s="1">
-        <v>526</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1" t="s">
+      <c r="D176" t="s">
         <v>124</v>
       </c>
       <c r="E176" t="s">
@@ -5395,13 +5210,12 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
+        <v>528</v>
+      </c>
+      <c r="B177">
         <v>5</v>
       </c>
-      <c r="B177" s="1">
-        <v>528</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1" t="s">
+      <c r="D177" t="s">
         <v>125</v>
       </c>
       <c r="E177" t="s">
@@ -5413,13 +5227,12 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
+        <v>530</v>
+      </c>
+      <c r="B178">
         <v>5</v>
       </c>
-      <c r="B178" s="1">
-        <v>530</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1" t="s">
+      <c r="D178" t="s">
         <v>126</v>
       </c>
       <c r="E178" t="s">
@@ -5431,13 +5244,12 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
+        <v>534</v>
+      </c>
+      <c r="B179">
         <v>5</v>
       </c>
-      <c r="B179" s="1">
-        <v>534</v>
-      </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1" t="s">
+      <c r="D179" t="s">
         <v>127</v>
       </c>
       <c r="E179" t="s">
@@ -5449,13 +5261,12 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
+        <v>535</v>
+      </c>
+      <c r="B180">
         <v>5</v>
       </c>
-      <c r="B180" s="1">
-        <v>535</v>
-      </c>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1" t="s">
+      <c r="D180" t="s">
         <v>128</v>
       </c>
       <c r="E180" t="s">
@@ -5467,13 +5278,12 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
+        <v>536</v>
+      </c>
+      <c r="B181">
         <v>5</v>
       </c>
-      <c r="B181" s="1">
-        <v>536</v>
-      </c>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1" t="s">
+      <c r="D181" t="s">
         <v>129</v>
       </c>
       <c r="E181" t="s">
@@ -5485,13 +5295,12 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
+        <v>537</v>
+      </c>
+      <c r="B182">
         <v>5</v>
       </c>
-      <c r="B182" s="1">
-        <v>537</v>
-      </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1" t="s">
+      <c r="D182" t="s">
         <v>130</v>
       </c>
       <c r="E182" t="s">
@@ -5503,13 +5312,12 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
+        <v>539</v>
+      </c>
+      <c r="B183">
         <v>5</v>
       </c>
-      <c r="B183" s="1">
-        <v>539</v>
-      </c>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1" t="s">
+      <c r="D183" t="s">
         <v>131</v>
       </c>
       <c r="E183" t="s">
@@ -5521,13 +5329,12 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
+        <v>540</v>
+      </c>
+      <c r="B184">
         <v>5</v>
       </c>
-      <c r="B184" s="1">
-        <v>540</v>
-      </c>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1" t="s">
+      <c r="D184" t="s">
         <v>132</v>
       </c>
       <c r="E184" t="s">
@@ -5539,13 +5346,12 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
+        <v>541</v>
+      </c>
+      <c r="B185">
         <v>5</v>
       </c>
-      <c r="B185" s="1">
-        <v>541</v>
-      </c>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1" t="s">
+      <c r="D185" t="s">
         <v>133</v>
       </c>
       <c r="E185" t="s">
@@ -5557,13 +5363,12 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
+        <v>542</v>
+      </c>
+      <c r="B186">
         <v>5</v>
       </c>
-      <c r="B186" s="1">
-        <v>542</v>
-      </c>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1" t="s">
+      <c r="D186" t="s">
         <v>134</v>
       </c>
       <c r="E186" t="s">
@@ -5575,13 +5380,12 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
+        <v>543</v>
+      </c>
+      <c r="B187">
         <v>5</v>
       </c>
-      <c r="B187" s="1">
-        <v>543</v>
-      </c>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1" t="s">
+      <c r="D187" t="s">
         <v>135</v>
       </c>
       <c r="E187" t="s">
@@ -5593,13 +5397,12 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
+        <v>544</v>
+      </c>
+      <c r="B188">
         <v>5</v>
       </c>
-      <c r="B188" s="1">
-        <v>544</v>
-      </c>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1" t="s">
+      <c r="D188" t="s">
         <v>136</v>
       </c>
       <c r="E188" t="s">
@@ -5611,13 +5414,12 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
+        <v>545</v>
+      </c>
+      <c r="B189">
         <v>5</v>
       </c>
-      <c r="B189" s="1">
-        <v>545</v>
-      </c>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1" t="s">
+      <c r="D189" t="s">
         <v>137</v>
       </c>
       <c r="E189" t="s">
@@ -5629,13 +5431,12 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
+        <v>546</v>
+      </c>
+      <c r="B190">
         <v>5</v>
       </c>
-      <c r="B190" s="1">
-        <v>546</v>
-      </c>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1" t="s">
+      <c r="D190" t="s">
         <v>138</v>
       </c>
       <c r="E190" t="s">
@@ -5647,13 +5448,12 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
+        <v>547</v>
+      </c>
+      <c r="B191">
         <v>5</v>
       </c>
-      <c r="B191" s="1">
-        <v>547</v>
-      </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1" t="s">
+      <c r="D191" t="s">
         <v>139</v>
       </c>
       <c r="E191" t="s">
@@ -5665,13 +5465,12 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
+        <v>548</v>
+      </c>
+      <c r="B192">
         <v>5</v>
       </c>
-      <c r="B192" s="1">
-        <v>548</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1" t="s">
+      <c r="D192" t="s">
         <v>140</v>
       </c>
       <c r="E192" t="s">
@@ -5683,13 +5482,12 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
+        <v>549</v>
+      </c>
+      <c r="B193">
         <v>5</v>
       </c>
-      <c r="B193" s="1">
-        <v>549</v>
-      </c>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1" t="s">
+      <c r="D193" t="s">
         <v>141</v>
       </c>
       <c r="E193" t="s">
@@ -5701,13 +5499,12 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
+        <v>550</v>
+      </c>
+      <c r="B194">
         <v>5</v>
       </c>
-      <c r="B194" s="1">
-        <v>550</v>
-      </c>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1" t="s">
+      <c r="D194" t="s">
         <v>142</v>
       </c>
       <c r="E194" t="s">
@@ -5719,13 +5516,12 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
+        <v>602</v>
+      </c>
+      <c r="B195">
         <v>6</v>
       </c>
-      <c r="B195" s="1">
-        <v>602</v>
-      </c>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1" t="s">
+      <c r="D195" t="s">
         <v>143</v>
       </c>
       <c r="E195" t="s">
@@ -5737,13 +5533,12 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
+        <v>603</v>
+      </c>
+      <c r="B196">
         <v>6</v>
       </c>
-      <c r="B196" s="1">
-        <v>603</v>
-      </c>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1" t="s">
+      <c r="D196" t="s">
         <v>144</v>
       </c>
       <c r="E196" t="s">
@@ -5755,13 +5550,12 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
+        <v>604</v>
+      </c>
+      <c r="B197">
         <v>6</v>
       </c>
-      <c r="B197" s="1">
-        <v>604</v>
-      </c>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1" t="s">
+      <c r="D197" t="s">
         <v>145</v>
       </c>
       <c r="E197" t="s">
@@ -5773,13 +5567,12 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
+        <v>605</v>
+      </c>
+      <c r="B198">
         <v>6</v>
       </c>
-      <c r="B198" s="1">
-        <v>605</v>
-      </c>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1" t="s">
+      <c r="D198" t="s">
         <v>146</v>
       </c>
       <c r="E198" t="s">
@@ -5791,13 +5584,12 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
+        <v>606</v>
+      </c>
+      <c r="B199">
         <v>6</v>
       </c>
-      <c r="B199" s="1">
-        <v>606</v>
-      </c>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1" t="s">
+      <c r="D199" t="s">
         <v>147</v>
       </c>
       <c r="E199" t="s">
@@ -5809,13 +5601,12 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
+        <v>607</v>
+      </c>
+      <c r="B200">
         <v>6</v>
       </c>
-      <c r="B200" s="1">
-        <v>607</v>
-      </c>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1" t="s">
+      <c r="D200" t="s">
         <v>148</v>
       </c>
       <c r="E200" t="s">
@@ -5827,13 +5618,12 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
+        <v>608</v>
+      </c>
+      <c r="B201">
         <v>6</v>
       </c>
-      <c r="B201" s="1">
-        <v>608</v>
-      </c>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1" t="s">
+      <c r="D201" t="s">
         <v>149</v>
       </c>
       <c r="E201" t="s">
@@ -5845,13 +5635,12 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
+        <v>609</v>
+      </c>
+      <c r="B202">
         <v>6</v>
       </c>
-      <c r="B202" s="1">
-        <v>609</v>
-      </c>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1" t="s">
+      <c r="D202" t="s">
         <v>150</v>
       </c>
       <c r="E202" t="s">
@@ -5863,13 +5652,12 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
+        <v>610</v>
+      </c>
+      <c r="B203">
         <v>6</v>
       </c>
-      <c r="B203" s="1">
-        <v>610</v>
-      </c>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1" t="s">
+      <c r="D203" t="s">
         <v>151</v>
       </c>
       <c r="E203" t="s">
@@ -5881,13 +5669,12 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
+        <v>611</v>
+      </c>
+      <c r="B204">
         <v>6</v>
       </c>
-      <c r="B204" s="1">
-        <v>611</v>
-      </c>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1" t="s">
+      <c r="D204" t="s">
         <v>152</v>
       </c>
       <c r="E204" t="s">
@@ -5899,13 +5686,12 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
+        <v>612</v>
+      </c>
+      <c r="B205">
         <v>6</v>
       </c>
-      <c r="B205" s="1">
-        <v>612</v>
-      </c>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1" t="s">
+      <c r="D205" t="s">
         <v>153</v>
       </c>
       <c r="E205" t="s">
@@ -5917,13 +5703,12 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
+        <v>613</v>
+      </c>
+      <c r="B206">
         <v>6</v>
       </c>
-      <c r="B206" s="1">
-        <v>613</v>
-      </c>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1" t="s">
+      <c r="D206" t="s">
         <v>154</v>
       </c>
       <c r="E206" t="s">
@@ -5935,13 +5720,12 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
+        <v>614</v>
+      </c>
+      <c r="B207">
         <v>6</v>
       </c>
-      <c r="B207" s="1">
-        <v>614</v>
-      </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1" t="s">
+      <c r="D207" t="s">
         <v>155</v>
       </c>
       <c r="E207" t="s">
@@ -5953,13 +5737,12 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
+        <v>615</v>
+      </c>
+      <c r="B208">
         <v>6</v>
       </c>
-      <c r="B208" s="1">
-        <v>615</v>
-      </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1" t="s">
+      <c r="D208" t="s">
         <v>156</v>
       </c>
       <c r="E208" t="s">
@@ -5971,13 +5754,12 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
+        <v>616</v>
+      </c>
+      <c r="B209">
         <v>6</v>
       </c>
-      <c r="B209" s="1">
-        <v>616</v>
-      </c>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1" t="s">
+      <c r="D209" t="s">
         <v>157</v>
       </c>
       <c r="E209" t="s">
@@ -5989,13 +5771,12 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
+        <v>617</v>
+      </c>
+      <c r="B210">
         <v>6</v>
       </c>
-      <c r="B210" s="1">
-        <v>617</v>
-      </c>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1" t="s">
+      <c r="D210" t="s">
         <v>158</v>
       </c>
       <c r="E210" t="s">
@@ -6007,13 +5788,12 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
+        <v>618</v>
+      </c>
+      <c r="B211">
         <v>6</v>
       </c>
-      <c r="B211" s="1">
-        <v>618</v>
-      </c>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1" t="s">
+      <c r="D211" t="s">
         <v>159</v>
       </c>
       <c r="E211" t="s">
@@ -6025,13 +5805,12 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
+        <v>619</v>
+      </c>
+      <c r="B212">
         <v>6</v>
       </c>
-      <c r="B212" s="1">
-        <v>619</v>
-      </c>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1" t="s">
+      <c r="D212" t="s">
         <v>160</v>
       </c>
       <c r="E212" t="s">
@@ -6043,13 +5822,12 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
+        <v>620</v>
+      </c>
+      <c r="B213">
         <v>6</v>
       </c>
-      <c r="B213" s="1">
-        <v>620</v>
-      </c>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1" t="s">
+      <c r="D213" t="s">
         <v>161</v>
       </c>
       <c r="E213" t="s">
@@ -6061,13 +5839,12 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
+        <v>621</v>
+      </c>
+      <c r="B214">
         <v>6</v>
       </c>
-      <c r="B214" s="1">
-        <v>621</v>
-      </c>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1" t="s">
+      <c r="D214" t="s">
         <v>162</v>
       </c>
       <c r="E214" t="s">
@@ -6079,13 +5856,12 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
+        <v>622</v>
+      </c>
+      <c r="B215">
         <v>6</v>
       </c>
-      <c r="B215" s="1">
-        <v>622</v>
-      </c>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1" t="s">
+      <c r="D215" t="s">
         <v>163</v>
       </c>
       <c r="E215" t="s">
@@ -6097,13 +5873,12 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
+        <v>623</v>
+      </c>
+      <c r="B216">
         <v>6</v>
       </c>
-      <c r="B216" s="1">
-        <v>623</v>
-      </c>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1" t="s">
+      <c r="D216" t="s">
         <v>164</v>
       </c>
       <c r="E216" t="s">
@@ -6115,13 +5890,12 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
+        <v>624</v>
+      </c>
+      <c r="B217">
         <v>6</v>
       </c>
-      <c r="B217" s="1">
-        <v>624</v>
-      </c>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1" t="s">
+      <c r="D217" t="s">
         <v>165</v>
       </c>
       <c r="E217" t="s">
@@ -6133,13 +5907,12 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
+        <v>625</v>
+      </c>
+      <c r="B218">
         <v>6</v>
       </c>
-      <c r="B218" s="1">
-        <v>625</v>
-      </c>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1" t="s">
+      <c r="D218" t="s">
         <v>166</v>
       </c>
       <c r="E218" t="s">
@@ -6151,13 +5924,12 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
+        <v>626</v>
+      </c>
+      <c r="B219">
         <v>6</v>
       </c>
-      <c r="B219" s="1">
-        <v>626</v>
-      </c>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1" t="s">
+      <c r="D219" t="s">
         <v>167</v>
       </c>
       <c r="E219" t="s">
@@ -6169,13 +5941,12 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
+        <v>627</v>
+      </c>
+      <c r="B220">
         <v>6</v>
       </c>
-      <c r="B220" s="1">
-        <v>627</v>
-      </c>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1" t="s">
+      <c r="D220" t="s">
         <v>168</v>
       </c>
       <c r="E220" t="s">
@@ -6187,13 +5958,12 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
+        <v>628</v>
+      </c>
+      <c r="B221">
         <v>6</v>
       </c>
-      <c r="B221" s="1">
-        <v>628</v>
-      </c>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1" t="s">
+      <c r="D221" t="s">
         <v>169</v>
       </c>
       <c r="E221" t="s">
@@ -6205,13 +5975,12 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
+        <v>629</v>
+      </c>
+      <c r="B222">
         <v>6</v>
       </c>
-      <c r="B222" s="1">
-        <v>629</v>
-      </c>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1" t="s">
+      <c r="D222" t="s">
         <v>170</v>
       </c>
       <c r="E222" t="s">
@@ -6223,13 +5992,12 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
+        <v>630</v>
+      </c>
+      <c r="B223">
         <v>6</v>
       </c>
-      <c r="B223" s="1">
-        <v>630</v>
-      </c>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1" t="s">
+      <c r="D223" t="s">
         <v>171</v>
       </c>
       <c r="E223" t="s">
@@ -6241,13 +6009,12 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
+        <v>631</v>
+      </c>
+      <c r="B224">
         <v>6</v>
       </c>
-      <c r="B224" s="1">
-        <v>631</v>
-      </c>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1" t="s">
+      <c r="D224" t="s">
         <v>172</v>
       </c>
       <c r="E224" t="s">
@@ -6259,13 +6026,12 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
+        <v>632</v>
+      </c>
+      <c r="B225">
         <v>6</v>
       </c>
-      <c r="B225" s="1">
-        <v>632</v>
-      </c>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1" t="s">
+      <c r="D225" t="s">
         <v>173</v>
       </c>
       <c r="E225" t="s">
@@ -6277,13 +6043,12 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
+        <v>633</v>
+      </c>
+      <c r="B226">
         <v>6</v>
       </c>
-      <c r="B226" s="1">
-        <v>633</v>
-      </c>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1" t="s">
+      <c r="D226" t="s">
         <v>174</v>
       </c>
       <c r="E226" t="s">
@@ -6295,13 +6060,12 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
+        <v>634</v>
+      </c>
+      <c r="B227">
         <v>6</v>
       </c>
-      <c r="B227" s="1">
-        <v>634</v>
-      </c>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1" t="s">
+      <c r="D227" t="s">
         <v>175</v>
       </c>
       <c r="E227" t="s">
@@ -6313,13 +6077,12 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
+        <v>635</v>
+      </c>
+      <c r="B228">
         <v>6</v>
       </c>
-      <c r="B228" s="1">
-        <v>635</v>
-      </c>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1" t="s">
+      <c r="D228" t="s">
         <v>176</v>
       </c>
       <c r="E228" t="s">
@@ -6331,13 +6094,12 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
+        <v>636</v>
+      </c>
+      <c r="B229">
         <v>6</v>
       </c>
-      <c r="B229" s="1">
-        <v>636</v>
-      </c>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1" t="s">
+      <c r="D229" t="s">
         <v>177</v>
       </c>
       <c r="E229" t="s">
@@ -6349,13 +6111,12 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
+        <v>637</v>
+      </c>
+      <c r="B230">
         <v>6</v>
       </c>
-      <c r="B230" s="1">
-        <v>637</v>
-      </c>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1" t="s">
+      <c r="D230" t="s">
         <v>178</v>
       </c>
       <c r="E230" t="s">
@@ -6367,13 +6128,12 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
+        <v>638</v>
+      </c>
+      <c r="B231">
         <v>6</v>
       </c>
-      <c r="B231" s="1">
-        <v>638</v>
-      </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1" t="s">
+      <c r="D231" t="s">
         <v>179</v>
       </c>
       <c r="E231" t="s">
@@ -6385,13 +6145,12 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
+        <v>639</v>
+      </c>
+      <c r="B232">
         <v>6</v>
       </c>
-      <c r="B232" s="1">
-        <v>639</v>
-      </c>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1" t="s">
+      <c r="D232" t="s">
         <v>180</v>
       </c>
       <c r="E232" t="s">
@@ -6403,13 +6162,12 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
+        <v>640</v>
+      </c>
+      <c r="B233">
         <v>6</v>
       </c>
-      <c r="B233" s="1">
-        <v>640</v>
-      </c>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1" t="s">
+      <c r="D233" t="s">
         <v>181</v>
       </c>
       <c r="E233" t="s">
@@ -6421,13 +6179,12 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
+        <v>641</v>
+      </c>
+      <c r="B234">
         <v>6</v>
       </c>
-      <c r="B234" s="1">
-        <v>641</v>
-      </c>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1" t="s">
+      <c r="D234" t="s">
         <v>182</v>
       </c>
       <c r="E234" t="s">
@@ -6439,13 +6196,12 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
+        <v>642</v>
+      </c>
+      <c r="B235">
         <v>6</v>
       </c>
-      <c r="B235" s="1">
-        <v>642</v>
-      </c>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1" t="s">
+      <c r="D235" t="s">
         <v>183</v>
       </c>
       <c r="E235" t="s">
@@ -6457,13 +6213,12 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
+        <v>643</v>
+      </c>
+      <c r="B236">
         <v>6</v>
       </c>
-      <c r="B236" s="1">
-        <v>643</v>
-      </c>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1" t="s">
+      <c r="D236" t="s">
         <v>184</v>
       </c>
       <c r="E236" t="s">
@@ -6475,13 +6230,12 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
+        <v>645</v>
+      </c>
+      <c r="B237">
         <v>6</v>
       </c>
-      <c r="B237" s="1">
-        <v>645</v>
-      </c>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1" t="s">
+      <c r="D237" t="s">
         <v>185</v>
       </c>
       <c r="E237" t="s">
@@ -6493,13 +6247,12 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
+        <v>646</v>
+      </c>
+      <c r="B238">
         <v>6</v>
       </c>
-      <c r="B238" s="1">
-        <v>646</v>
-      </c>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1" t="s">
+      <c r="D238" t="s">
         <v>186</v>
       </c>
       <c r="E238" t="s">
@@ -6511,13 +6264,12 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
+        <v>647</v>
+      </c>
+      <c r="B239">
         <v>6</v>
       </c>
-      <c r="B239" s="1">
-        <v>647</v>
-      </c>
-      <c r="C239" s="1"/>
-      <c r="D239" s="2" t="s">
+      <c r="D239" t="s">
         <v>187</v>
       </c>
       <c r="E239" t="s">
@@ -6529,13 +6281,12 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
+        <v>648</v>
+      </c>
+      <c r="B240">
         <v>6</v>
       </c>
-      <c r="B240" s="1">
-        <v>648</v>
-      </c>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1" t="s">
+      <c r="D240" t="s">
         <v>188</v>
       </c>
       <c r="E240" t="s">
@@ -6547,13 +6298,12 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
+        <v>649</v>
+      </c>
+      <c r="B241">
         <v>6</v>
       </c>
-      <c r="B241" s="1">
-        <v>649</v>
-      </c>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1" t="s">
+      <c r="D241" t="s">
         <v>189</v>
       </c>
       <c r="E241" t="s">
@@ -6565,13 +6315,12 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
+        <v>650</v>
+      </c>
+      <c r="B242">
         <v>6</v>
       </c>
-      <c r="B242" s="1">
-        <v>650</v>
-      </c>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1" t="s">
+      <c r="D242" t="s">
         <v>190</v>
       </c>
       <c r="E242" t="s">
@@ -6583,13 +6332,12 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
+        <v>651</v>
+      </c>
+      <c r="B243">
         <v>6</v>
       </c>
-      <c r="B243" s="1">
-        <v>651</v>
-      </c>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1" t="s">
+      <c r="D243" t="s">
         <v>191</v>
       </c>
       <c r="E243" t="s">
@@ -6601,13 +6349,12 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
+        <v>652</v>
+      </c>
+      <c r="B244">
         <v>6</v>
       </c>
-      <c r="B244" s="1">
-        <v>652</v>
-      </c>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1" t="s">
+      <c r="D244" t="s">
         <v>192</v>
       </c>
       <c r="E244" t="s">
@@ -6619,13 +6366,12 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
+        <v>653</v>
+      </c>
+      <c r="B245">
         <v>6</v>
       </c>
-      <c r="B245" s="1">
-        <v>653</v>
-      </c>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1" t="s">
+      <c r="D245" t="s">
         <v>193</v>
       </c>
       <c r="E245" t="s">
@@ -6637,13 +6383,12 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
+        <v>654</v>
+      </c>
+      <c r="B246">
         <v>6</v>
       </c>
-      <c r="B246" s="1">
-        <v>654</v>
-      </c>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1" t="s">
+      <c r="D246" t="s">
         <v>194</v>
       </c>
       <c r="E246" t="s">
@@ -6655,13 +6400,12 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
+        <v>655</v>
+      </c>
+      <c r="B247">
         <v>6</v>
       </c>
-      <c r="B247" s="1">
-        <v>655</v>
-      </c>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1" t="s">
+      <c r="D247" t="s">
         <v>195</v>
       </c>
       <c r="E247" t="s">
@@ -6673,13 +6417,12 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
+        <v>658</v>
+      </c>
+      <c r="B248">
         <v>6</v>
       </c>
-      <c r="B248" s="1">
-        <v>658</v>
-      </c>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1" t="s">
+      <c r="D248" t="s">
         <v>196</v>
       </c>
       <c r="E248" t="s">
@@ -6691,13 +6434,12 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
+        <v>702</v>
+      </c>
+      <c r="B249">
         <v>7</v>
       </c>
-      <c r="B249" s="1">
-        <v>702</v>
-      </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1" t="s">
+      <c r="D249" t="s">
         <v>197</v>
       </c>
       <c r="E249" t="s">
@@ -6709,13 +6451,12 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
+        <v>704</v>
+      </c>
+      <c r="B250">
         <v>7</v>
       </c>
-      <c r="B250" s="1">
-        <v>704</v>
-      </c>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1" t="s">
+      <c r="D250" t="s">
         <v>198</v>
       </c>
       <c r="E250" t="s">
@@ -6727,13 +6468,12 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
+        <v>706</v>
+      </c>
+      <c r="B251">
         <v>7</v>
       </c>
-      <c r="B251" s="1">
-        <v>706</v>
-      </c>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1" t="s">
+      <c r="D251" t="s">
         <v>199</v>
       </c>
       <c r="E251" t="s">
@@ -6745,13 +6485,12 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
+        <v>708</v>
+      </c>
+      <c r="B252">
         <v>7</v>
       </c>
-      <c r="B252" s="1">
-        <v>708</v>
-      </c>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1" t="s">
+      <c r="D252" t="s">
         <v>200</v>
       </c>
       <c r="E252" t="s">
@@ -6763,13 +6502,12 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
+        <v>710</v>
+      </c>
+      <c r="B253">
         <v>7</v>
       </c>
-      <c r="B253" s="1">
-        <v>710</v>
-      </c>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1" t="s">
+      <c r="D253" t="s">
         <v>201</v>
       </c>
       <c r="E253" t="s">
@@ -6781,13 +6519,12 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
+        <v>712</v>
+      </c>
+      <c r="B254">
         <v>7</v>
       </c>
-      <c r="B254" s="1">
-        <v>712</v>
-      </c>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1" t="s">
+      <c r="D254" t="s">
         <v>202</v>
       </c>
       <c r="E254" t="s">
@@ -6799,13 +6536,12 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
+        <v>714</v>
+      </c>
+      <c r="B255">
         <v>7</v>
       </c>
-      <c r="B255" s="1">
-        <v>714</v>
-      </c>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1" t="s">
+      <c r="D255" t="s">
         <v>203</v>
       </c>
       <c r="E255" t="s">
@@ -6817,13 +6553,12 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
+        <v>716</v>
+      </c>
+      <c r="B256">
         <v>7</v>
       </c>
-      <c r="B256" s="1">
-        <v>716</v>
-      </c>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1" t="s">
+      <c r="D256" t="s">
         <v>204</v>
       </c>
       <c r="E256" t="s">
@@ -6835,13 +6570,12 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
+        <v>722</v>
+      </c>
+      <c r="B257">
         <v>7</v>
       </c>
-      <c r="B257" s="1">
-        <v>722</v>
-      </c>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1" t="s">
+      <c r="D257" t="s">
         <v>205</v>
       </c>
       <c r="E257" t="s">
@@ -6853,13 +6587,12 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
+        <v>724</v>
+      </c>
+      <c r="B258">
         <v>7</v>
       </c>
-      <c r="B258" s="1">
-        <v>724</v>
-      </c>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1" t="s">
+      <c r="D258" t="s">
         <v>206</v>
       </c>
       <c r="E258" t="s">
@@ -6871,13 +6604,12 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
+        <v>725</v>
+      </c>
+      <c r="B259">
         <v>7</v>
       </c>
-      <c r="B259" s="1">
-        <v>725</v>
-      </c>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1" t="s">
+      <c r="D259" t="s">
         <v>206</v>
       </c>
       <c r="E259" t="s">
@@ -6889,13 +6621,12 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
+        <v>730</v>
+      </c>
+      <c r="B260">
         <v>7</v>
       </c>
-      <c r="B260" s="1">
-        <v>730</v>
-      </c>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1" t="s">
+      <c r="D260" t="s">
         <v>207</v>
       </c>
       <c r="E260" t="s">
@@ -6907,13 +6638,12 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
+        <v>732</v>
+      </c>
+      <c r="B261">
         <v>7</v>
       </c>
-      <c r="B261" s="1">
-        <v>732</v>
-      </c>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1" t="s">
+      <c r="D261" t="s">
         <v>208</v>
       </c>
       <c r="E261" t="s">
@@ -6925,13 +6655,12 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
+        <v>734</v>
+      </c>
+      <c r="B262">
         <v>7</v>
       </c>
-      <c r="B262" s="1">
-        <v>734</v>
-      </c>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1" t="s">
+      <c r="D262" t="s">
         <v>209</v>
       </c>
       <c r="E262" t="s">
@@ -6943,13 +6672,12 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
+        <v>736</v>
+      </c>
+      <c r="B263">
         <v>7</v>
       </c>
-      <c r="B263" s="1">
-        <v>736</v>
-      </c>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1" t="s">
+      <c r="D263" t="s">
         <v>210</v>
       </c>
       <c r="E263" t="s">
@@ -6961,13 +6689,12 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
+        <v>738</v>
+      </c>
+      <c r="B264">
         <v>7</v>
       </c>
-      <c r="B264" s="1">
-        <v>738</v>
-      </c>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1" t="s">
+      <c r="D264" t="s">
         <v>211</v>
       </c>
       <c r="E264" t="s">
@@ -6979,13 +6706,12 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
+        <v>740</v>
+      </c>
+      <c r="B265">
         <v>7</v>
       </c>
-      <c r="B265" s="1">
-        <v>740</v>
-      </c>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1" t="s">
+      <c r="D265" t="s">
         <v>212</v>
       </c>
       <c r="E265" t="s">
@@ -6997,13 +6723,12 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
+        <v>742</v>
+      </c>
+      <c r="B266">
         <v>7</v>
       </c>
-      <c r="B266" s="1">
-        <v>742</v>
-      </c>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1" t="s">
+      <c r="D266" t="s">
         <v>213</v>
       </c>
       <c r="E266" t="s">
@@ -7015,13 +6740,12 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
+        <v>744</v>
+      </c>
+      <c r="B267">
         <v>7</v>
       </c>
-      <c r="B267" s="1">
-        <v>744</v>
-      </c>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1" t="s">
+      <c r="D267" t="s">
         <v>214</v>
       </c>
       <c r="E267" t="s">
@@ -7033,13 +6757,12 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
+        <v>746</v>
+      </c>
+      <c r="B268">
         <v>7</v>
       </c>
-      <c r="B268" s="1">
-        <v>746</v>
-      </c>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1" t="s">
+      <c r="D268" t="s">
         <v>215</v>
       </c>
       <c r="E268" t="s">
@@ -7051,13 +6774,12 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
+        <v>748</v>
+      </c>
+      <c r="B269">
         <v>7</v>
       </c>
-      <c r="B269" s="1">
-        <v>748</v>
-      </c>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1" t="s">
+      <c r="D269" t="s">
         <v>216</v>
       </c>
       <c r="E269" t="s">
@@ -7068,17 +6790,17 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="5"/>
+      <c r="A272" s="2"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="6"/>
+      <c r="A275" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D138" r:id="rId1" location="_ftn1" display="applewebdata://B71B9DFF-091B-4A2D-AF87-51E984EA2138/ - _ftn1" xr:uid="{D1140340-699A-874F-9B0E-A5441225270D}"/>
   </hyperlinks>
